--- a/makeDataset/dataset/korea_administrative_division_latitude_longitude.xlsx
+++ b/makeDataset/dataset/korea_administrative_division_latitude_longitude.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yshong/study/dataScienceOpenning/hackathon/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yshong/study/dataScienceOpenning/Predicton-Population/makeDataset/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0A806E-D84E-F343-878E-F132F088BD12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29B8452-7E9F-C043-9CB5-117747F3B61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2140" windowWidth="30240" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="location" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">location!$A$1:$E$245</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">location!$A$1:$E$224</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="222">
   <si>
     <t>do</t>
   </si>
@@ -147,9 +147,6 @@
     <t>동두천시</t>
   </si>
   <si>
-    <t>미추홀구</t>
-  </si>
-  <si>
     <t>부천시</t>
   </si>
   <si>
@@ -183,9 +180,6 @@
     <t>양평군</t>
   </si>
   <si>
-    <t>여주시</t>
-  </si>
-  <si>
     <t>연수구</t>
   </si>
   <si>
@@ -258,9 +252,6 @@
     <t>금정구</t>
   </si>
   <si>
-    <t>기장군</t>
-  </si>
-  <si>
     <t>김천시</t>
   </si>
   <si>
@@ -279,9 +270,6 @@
     <t>동래구</t>
   </si>
   <si>
-    <t>마산시</t>
-  </si>
-  <si>
     <t>문경시</t>
   </si>
   <si>
@@ -366,9 +354,6 @@
     <t>진주시</t>
   </si>
   <si>
-    <t>진해시</t>
-  </si>
-  <si>
     <t>창녕군</t>
   </si>
   <si>
@@ -618,12 +603,6 @@
     <t>단양군</t>
   </si>
   <si>
-    <t>당진군</t>
-  </si>
-  <si>
-    <t>당진시</t>
-  </si>
-  <si>
     <t>대덕구</t>
   </si>
   <si>
@@ -633,9 +612,6 @@
     <t>보은군</t>
   </si>
   <si>
-    <t>부강면</t>
-  </si>
-  <si>
     <t>부여군</t>
   </si>
   <si>
@@ -648,9 +624,6 @@
     <t>아산시</t>
   </si>
   <si>
-    <t>연기군</t>
-  </si>
-  <si>
     <t>영동군</t>
   </si>
   <si>
@@ -679,9 +652,6 @@
   </si>
   <si>
     <t>청양군</t>
-  </si>
-  <si>
-    <t>청원군</t>
   </si>
   <si>
     <t>청주시</t>
@@ -704,66 +674,44 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>부산시</t>
-  </si>
-  <si>
-    <t>부산시</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>경상</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>대구시</t>
-  </si>
-  <si>
-    <t>대구시</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>울산시</t>
-  </si>
-  <si>
-    <t>울산시</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>전라</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주시</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>충청</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>대전시</t>
-  </si>
-  <si>
-    <t>대전시</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>인천시</t>
-  </si>
-  <si>
     <t>docity</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>기장군</t>
+  </si>
+  <si>
+    <t>금산군</t>
+  </si>
+  <si>
+    <t>인천</t>
+  </si>
+  <si>
+    <t>광주</t>
+  </si>
+  <si>
+    <t>대구</t>
+  </si>
+  <si>
+    <t>대전</t>
+  </si>
+  <si>
+    <t>부산</t>
+  </si>
+  <si>
+    <t>울산</t>
+  </si>
+  <si>
+    <t>부산기장군</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="0.000000_);[Red]\(0.000000\)"/>
-    <numFmt numFmtId="165" formatCode="0.0000000_);[Red]\(0.0000000\)"/>
-    <numFmt numFmtId="166" formatCode="0.0000000"/>
-    <numFmt numFmtId="167" formatCode="0.00000000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -1361,17 +1309,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1722,10 +1668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E245"/>
+  <dimension ref="A1:E224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:XFD63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1733,12 +1679,11 @@
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="12.83203125" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1747,15 +1692,15 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E1" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
-        <f t="shared" ref="A2:A63" si="0">B2&amp;C2</f>
+        <f t="shared" ref="A2:A61" si="0">B2&amp;C2</f>
         <v>강원강릉시</v>
       </c>
       <c r="B2" t="s">
@@ -2098,10 +2043,10 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
-        <v>인천시강화군</v>
+        <v>인천강화군</v>
       </c>
       <c r="B21" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
@@ -2241,7 +2186,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
-        <f t="shared" si="0"/>
+        <f>B29&amp;C29</f>
         <v>경기남양주시</v>
       </c>
       <c r="B29" t="s">
@@ -2284,7 +2229,7 @@
         <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31">
         <v>126.76600000000001</v>
@@ -2302,7 +2247,7 @@
         <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D32">
         <v>127.14771944444399</v>
@@ -2320,7 +2265,7 @@
         <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D33">
         <v>127.01222222222199</v>
@@ -2338,7 +2283,7 @@
         <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D34">
         <v>126.805077777777</v>
@@ -2356,7 +2301,7 @@
         <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D35">
         <v>126.84681944444399</v>
@@ -2374,7 +2319,7 @@
         <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D36">
         <v>127.281844444444</v>
@@ -2392,7 +2337,7 @@
         <v>21</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D37">
         <v>126.95335555555501</v>
@@ -2410,7 +2355,7 @@
         <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D38">
         <v>127.047819444444</v>
@@ -2428,7 +2373,7 @@
         <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D39">
         <v>127.48988611111101</v>
@@ -2440,7 +2385,7 @@
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
-        <v>경기여주시</v>
+        <v>경기연천군</v>
       </c>
       <c r="B40" t="s">
         <v>21</v>
@@ -2449,124 +2394,124 @@
         <v>49</v>
       </c>
       <c r="D40">
-        <v>127.639622222222</v>
+        <v>127.077066666666</v>
       </c>
       <c r="E40">
-        <v>37.295358333333297</v>
+        <v>38.093363888888803</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
-        <v>경기연천군</v>
+        <v>경기오산시</v>
       </c>
       <c r="B41" t="s">
         <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D41">
-        <v>127.077066666666</v>
+        <v>127.07964166666601</v>
       </c>
       <c r="E41">
-        <v>38.093363888888803</v>
+        <v>37.146913888888797</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
-        <v>경기오산시</v>
+        <v>인천옹진군</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D42">
-        <v>127.07964166666601</v>
+        <v>126.638888888888</v>
       </c>
       <c r="E42">
-        <v>37.146913888888797</v>
+        <v>37.443724999999901</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
-        <v>인천시옹진군</v>
+        <v>경기용인시</v>
       </c>
       <c r="B43" t="s">
-        <v>234</v>
+        <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D43">
-        <v>126.638888888888</v>
+        <v>127.203844444444</v>
       </c>
       <c r="E43">
-        <v>37.443724999999901</v>
+        <v>37.231477777777698</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
-        <v>경기용인시</v>
+        <v>경기의왕시</v>
       </c>
       <c r="B44" t="s">
         <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D44">
-        <v>127.203844444444</v>
+        <v>126.970388888888</v>
       </c>
       <c r="E44">
-        <v>37.231477777777698</v>
+        <v>37.341949999999997</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
-        <v>경기의왕시</v>
+        <v>경기의정부시</v>
       </c>
       <c r="B45" t="s">
         <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D45">
-        <v>126.970388888888</v>
+        <v>127.035841666666</v>
       </c>
       <c r="E45">
-        <v>37.341949999999997</v>
+        <v>37.735288888888803</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
-        <v>경기의정부시</v>
+        <v>경기이천시</v>
       </c>
       <c r="B46" t="s">
         <v>21</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D46">
-        <v>127.035841666666</v>
+        <v>127.443219444444</v>
       </c>
       <c r="E46">
-        <v>37.735288888888803</v>
+        <v>37.275436111111098</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
-        <v>경기이천시</v>
+        <v>경기파주시</v>
       </c>
       <c r="B47" t="s">
         <v>21</v>
@@ -2575,3574 +2520,3195 @@
         <v>57</v>
       </c>
       <c r="D47">
-        <v>127.443219444444</v>
+        <v>126.78195277777699</v>
       </c>
       <c r="E47">
-        <v>37.275436111111098</v>
+        <v>37.757083333333298</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
-        <v>경기파주시</v>
+        <v>경기평택시</v>
       </c>
       <c r="B48" t="s">
         <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D48">
-        <v>126.78195277777699</v>
+        <v>127.114655555555</v>
       </c>
       <c r="E48">
-        <v>37.757083333333298</v>
+        <v>36.989438888888799</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
-        <v>경기평택시</v>
+        <v>경기포천시</v>
       </c>
       <c r="B49" t="s">
         <v>21</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D49">
-        <v>127.114655555555</v>
+        <v>127.202419444444</v>
       </c>
       <c r="E49">
-        <v>36.989438888888799</v>
+        <v>37.892155555555497</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
-        <v>경기포천시</v>
+        <v>경기하남시</v>
       </c>
       <c r="B50" t="s">
         <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D50">
-        <v>127.202419444444</v>
+        <v>127.217</v>
       </c>
       <c r="E50">
-        <v>37.892155555555497</v>
+        <v>37.536497222222202</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
-        <v>경기하남시</v>
+        <v>경기화성시</v>
       </c>
       <c r="B51" t="s">
         <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D51">
-        <v>127.217</v>
+        <v>126.833530555555</v>
       </c>
       <c r="E51">
-        <v>37.536497222222202</v>
+        <v>37.196816666666599</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
-        <v>경기화성시</v>
+        <v>경상거제시</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D52">
-        <v>126.833530555555</v>
+        <v>128.62335555555501</v>
       </c>
       <c r="E52">
-        <v>37.196816666666599</v>
+        <v>34.877358333333298</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
-        <v>경상거제시</v>
+        <v>경상거창군</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D53">
-        <v>128.62335555555501</v>
+        <v>127.911655555555</v>
       </c>
       <c r="E53">
-        <v>34.877358333333298</v>
+        <v>35.683624999999999</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
-        <v>경상거창군</v>
+        <v>경상경산시</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D54">
-        <v>127.911655555555</v>
+        <v>128.74346388888799</v>
       </c>
       <c r="E54">
-        <v>35.683624999999999</v>
+        <v>35.8220888888888</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
-        <v>경상경산시</v>
+        <v>경상경주시</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D55">
-        <v>128.74346388888799</v>
+        <v>129.22702222222199</v>
       </c>
       <c r="E55">
-        <v>35.8220888888888</v>
+        <v>35.853169444444397</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
-        <v>경상경주시</v>
+        <v>경상고령군</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D56">
-        <v>129.22702222222199</v>
+        <v>128.265022222222</v>
       </c>
       <c r="E56">
-        <v>35.853169444444397</v>
+        <v>35.722986111111098</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
-        <v>경상고령군</v>
+        <v>경상고성군</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="D57">
-        <v>128.265022222222</v>
+        <v>128.32454166666599</v>
       </c>
       <c r="E57">
-        <v>35.722986111111098</v>
+        <v>34.969900000000003</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
-        <v>경상고성군</v>
+        <v>경상구미시</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="D58">
-        <v>128.32454166666599</v>
+        <v>128.34677777777699</v>
       </c>
       <c r="E58">
-        <v>34.969900000000003</v>
+        <v>36.116549999999997</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
-        <v>경상구미시</v>
+        <v>경상군위군</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D59">
-        <v>128.34677777777699</v>
+        <v>128.57507777777701</v>
       </c>
       <c r="E59">
-        <v>36.116549999999997</v>
+        <v>36.2399972222222</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
-        <v>경상군위군</v>
+        <v>경상김천시</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
         <v>72</v>
       </c>
       <c r="D60">
-        <v>128.57507777777701</v>
+        <v>128.11580000000001</v>
       </c>
       <c r="E60">
-        <v>36.2399972222222</v>
+        <v>36.136897222222203</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
-        <v>경상기장군</v>
+        <v>경상김해시</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D61">
-        <v>129.22447500000001</v>
+        <v>128.891666666666</v>
       </c>
       <c r="E61">
-        <v>35.241349999999997</v>
+        <v>35.2255055555555</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
-        <f t="shared" si="0"/>
-        <v>경상김천시</v>
+        <f t="shared" ref="A62:A95" si="1">B62&amp;C62</f>
+        <v>경상남해군</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D62">
-        <v>128.11580000000001</v>
+        <v>127.89446666666601</v>
       </c>
       <c r="E62">
-        <v>36.136897222222203</v>
+        <v>34.834558333333298</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
-        <f t="shared" si="0"/>
-        <v>경상김해시</v>
+        <f t="shared" si="1"/>
+        <v>경상문경시</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D63">
-        <v>128.891666666666</v>
+        <v>128.189019444444</v>
       </c>
       <c r="E63">
-        <v>35.2255055555555</v>
+        <v>36.583630555555501</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
-        <f t="shared" ref="A64:A126" si="1">B64&amp;C64</f>
-        <v>경상남해군</v>
+        <f t="shared" si="1"/>
+        <v>경상밀양시</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C64" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D64">
-        <v>127.89446666666601</v>
+        <v>128.74894444444399</v>
       </c>
       <c r="E64">
-        <v>34.834558333333298</v>
+        <v>35.500777777777699</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
         <f t="shared" si="1"/>
-        <v>경상달성군</v>
+        <v>경상봉화군</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C65" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D65">
-        <v>128.43327499999901</v>
+        <v>128.73487499999999</v>
       </c>
       <c r="E65">
-        <v>35.771680555555498</v>
+        <v>36.890261111111101</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
         <f t="shared" si="1"/>
-        <v>경상마산시</v>
+        <v>경상사천시</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C66" t="s">
-        <v>81</v>
-      </c>
-      <c r="D66" s="2">
-        <v>128.56786299999999</v>
-      </c>
-      <c r="E66" s="2">
-        <v>35.196874000000001</v>
+        <v>84</v>
+      </c>
+      <c r="D66">
+        <v>128.06677777777699</v>
+      </c>
+      <c r="E66">
+        <v>35.0002833333333</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
         <f t="shared" si="1"/>
-        <v>경상문경시</v>
+        <v>경상산청군</v>
       </c>
       <c r="B67" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C67" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D67">
-        <v>128.189019444444</v>
+        <v>127.875619444444</v>
       </c>
       <c r="E67">
-        <v>36.583630555555501</v>
+        <v>35.412491666666597</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
         <f t="shared" si="1"/>
-        <v>경상밀양시</v>
+        <v>경상상주시</v>
       </c>
       <c r="B68" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C68" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D68">
-        <v>128.74894444444399</v>
+        <v>128.16126388888799</v>
       </c>
       <c r="E68">
-        <v>35.500777777777699</v>
+        <v>36.407969444444397</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
-        <v>경상봉화군</v>
+        <v>경상성주군</v>
       </c>
       <c r="B69" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C69" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D69">
-        <v>128.73487499999999</v>
+        <v>128.285152777777</v>
       </c>
       <c r="E69">
-        <v>36.890261111111101</v>
+        <v>35.916211111111103</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
-        <v>경상사천시</v>
+        <v>경상안동시</v>
       </c>
       <c r="B70" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C70" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D70">
-        <v>128.06677777777699</v>
+        <v>128.731622222222</v>
       </c>
       <c r="E70">
-        <v>35.0002833333333</v>
+        <v>36.5654638888888</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
-        <v>경상산청군</v>
+        <v>경상양산시</v>
       </c>
       <c r="B71" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C71" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D71">
-        <v>127.875619444444</v>
+        <v>129.03941111111101</v>
       </c>
       <c r="E71">
-        <v>35.412491666666597</v>
+        <v>35.3319277777777</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
-        <v>경상상주시</v>
+        <v>경상영덕군</v>
       </c>
       <c r="B72" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C72" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D72">
-        <v>128.16126388888799</v>
+        <v>129.36835555555501</v>
       </c>
       <c r="E72">
-        <v>36.407969444444397</v>
+        <v>36.412102777777697</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
-        <v>경상성주군</v>
+        <v>경상영양군</v>
       </c>
       <c r="B73" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C73" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D73">
-        <v>128.285152777777</v>
+        <v>129.11462222222201</v>
       </c>
       <c r="E73">
-        <v>35.916211111111103</v>
+        <v>36.664274999999897</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
-        <v>경상안동시</v>
+        <v>경상영주시</v>
       </c>
       <c r="B74" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C74" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D74">
-        <v>128.731622222222</v>
+        <v>128.62634444444399</v>
       </c>
       <c r="E74">
-        <v>36.5654638888888</v>
+        <v>36.802936111111102</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
-        <v>경상양산시</v>
+        <v>경상영천시</v>
       </c>
       <c r="B75" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C75" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D75">
-        <v>129.03941111111101</v>
+        <v>128.940775</v>
       </c>
       <c r="E75">
-        <v>35.3319277777777</v>
+        <v>35.970052777777703</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
-        <v>경상영덕군</v>
+        <v>경상예천군</v>
       </c>
       <c r="B76" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C76" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D76">
-        <v>129.36835555555501</v>
-      </c>
-      <c r="E76">
-        <v>36.412102777777697</v>
+        <v>128.455022222222</v>
+      </c>
+      <c r="E76" s="3">
+        <v>36.654949999999999</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
-        <v>경상영양군</v>
+        <v>경상울릉군</v>
       </c>
       <c r="B77" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C77" t="s">
         <v>100</v>
       </c>
       <c r="D77">
-        <v>129.11462222222201</v>
-      </c>
-      <c r="E77">
-        <v>36.664274999999897</v>
+        <v>130.90378888888799</v>
+      </c>
+      <c r="E77" s="3">
+        <v>37.480575000000002</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
-        <v>경상영주시</v>
+        <v>경상울진군</v>
       </c>
       <c r="B78" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C78" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D78">
-        <v>128.62634444444399</v>
+        <v>129.402786111111</v>
       </c>
       <c r="E78">
-        <v>36.802936111111102</v>
+        <v>36.9901861111111</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
-        <v>경상영천시</v>
+        <v>경상의령군</v>
       </c>
       <c r="B79" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C79" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D79">
-        <v>128.940775</v>
+        <v>128.26382222222199</v>
       </c>
       <c r="E79">
-        <v>35.970052777777703</v>
+        <v>35.319119444444397</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
-        <v>경상예천군</v>
+        <v>경상의성군</v>
       </c>
       <c r="B80" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C80" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D80">
-        <v>128.455022222222</v>
-      </c>
-      <c r="E80" s="5">
-        <v>36.654949999999999</v>
+        <v>128.699363888888</v>
+      </c>
+      <c r="E80">
+        <v>36.349758333333298</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
-        <v>경상울릉군</v>
+        <v>경상진주시</v>
       </c>
       <c r="B81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C81" t="s">
-        <v>104</v>
-      </c>
-      <c r="D81">
-        <v>130.90378888888799</v>
-      </c>
-      <c r="E81" s="5">
-        <v>37.480575000000002</v>
+        <v>105</v>
+      </c>
+      <c r="D81" s="2">
+        <v>128.10999999999899</v>
+      </c>
+      <c r="E81">
+        <v>35.177033333333299</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
         <f t="shared" si="1"/>
-        <v>경상울주군</v>
+        <v>경상창녕군</v>
       </c>
       <c r="B82" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C82" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D82">
-        <v>129.29716388888801</v>
+        <v>128.49453333333301</v>
       </c>
       <c r="E82">
-        <v>35.530738888888798</v>
+        <v>35.5415361111111</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="str">
         <f t="shared" si="1"/>
-        <v>경상울진군</v>
+        <v>경상창원시</v>
       </c>
       <c r="B83" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C83" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D83">
-        <v>129.402786111111</v>
+        <v>128.6401544</v>
       </c>
       <c r="E83">
-        <v>36.9901861111111</v>
+        <v>35.254003300000001</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
         <f t="shared" si="1"/>
-        <v>경상의령군</v>
+        <v>경상청도군</v>
       </c>
       <c r="B84" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C84" t="s">
-        <v>107</v>
-      </c>
-      <c r="D84">
-        <v>128.26382222222199</v>
+        <v>108</v>
+      </c>
+      <c r="D84" s="2">
+        <v>128.7362</v>
       </c>
       <c r="E84">
-        <v>35.319119444444397</v>
+        <v>35.644311111111101</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
         <f t="shared" si="1"/>
-        <v>경상의성군</v>
+        <v>경상청송군</v>
       </c>
       <c r="B85" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C85" t="s">
-        <v>108</v>
-      </c>
-      <c r="D85">
-        <v>128.699363888888</v>
+        <v>109</v>
+      </c>
+      <c r="D85" s="2">
+        <v>129.05940000000001</v>
       </c>
       <c r="E85">
-        <v>36.349758333333298</v>
+        <v>36.433291666666598</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="str">
         <f t="shared" si="1"/>
-        <v>경상진주시</v>
+        <v>경상칠곡군</v>
       </c>
       <c r="B86" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C86" t="s">
-        <v>109</v>
-      </c>
-      <c r="D86" s="4">
-        <v>128.10999999999899</v>
+        <v>110</v>
+      </c>
+      <c r="D86">
+        <v>128.40379722222201</v>
       </c>
       <c r="E86">
-        <v>35.177033333333299</v>
+        <v>35.9925472222222</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="str">
         <f t="shared" si="1"/>
-        <v>경상진해시</v>
+        <v>경상통영시</v>
       </c>
       <c r="B87" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C87" t="s">
-        <v>110</v>
-      </c>
-      <c r="D87" s="2">
-        <v>128.710081</v>
-      </c>
-      <c r="E87" s="3">
-        <v>35.13306</v>
+        <v>111</v>
+      </c>
+      <c r="D87">
+        <v>128.435277777777</v>
+      </c>
+      <c r="E87">
+        <v>34.851258333333298</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="str">
         <f t="shared" si="1"/>
-        <v>경상창녕군</v>
+        <v>경상포항시</v>
       </c>
       <c r="B88" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C88" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D88">
-        <v>128.49453333333301</v>
+        <v>129.361666666666</v>
       </c>
       <c r="E88">
-        <v>35.5415361111111</v>
+        <v>36.005686111111103</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="str">
         <f t="shared" si="1"/>
-        <v>경상창원시</v>
+        <v>경상하동군</v>
       </c>
       <c r="B89" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C89" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D89">
-        <v>128.6401544</v>
+        <v>127.753430555555</v>
       </c>
       <c r="E89">
-        <v>35.254003300000001</v>
+        <v>35.064202777777702</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="str">
         <f t="shared" si="1"/>
-        <v>경상청도군</v>
+        <v>경상함안군</v>
       </c>
       <c r="B90" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C90" t="s">
-        <v>113</v>
-      </c>
-      <c r="D90" s="4">
-        <v>128.7362</v>
+        <v>114</v>
+      </c>
+      <c r="D90">
+        <v>128.40870833333301</v>
       </c>
       <c r="E90">
-        <v>35.644311111111101</v>
+        <v>35.269405555555501</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
         <f t="shared" si="1"/>
-        <v>경상청송군</v>
+        <v>경상함양군</v>
       </c>
       <c r="B91" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C91" t="s">
-        <v>114</v>
-      </c>
-      <c r="D91" s="4">
-        <v>129.05940000000001</v>
+        <v>115</v>
+      </c>
+      <c r="D91">
+        <v>127.727419444444</v>
       </c>
       <c r="E91">
-        <v>36.433291666666598</v>
+        <v>35.517469444444401</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="str">
         <f t="shared" si="1"/>
-        <v>경상칠곡군</v>
+        <v>경상합천군</v>
       </c>
       <c r="B92" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C92" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D92">
-        <v>128.40379722222201</v>
+        <v>128.16793055555499</v>
       </c>
       <c r="E92">
-        <v>35.9925472222222</v>
+        <v>35.563616666666597</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="str">
         <f t="shared" si="1"/>
-        <v>경상통영시</v>
+        <v>광주광산구</v>
       </c>
       <c r="B93" t="s">
-        <v>64</v>
+        <v>216</v>
       </c>
       <c r="C93" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="D93">
-        <v>128.435277777777</v>
+        <v>126.793668011574</v>
       </c>
       <c r="E93">
-        <v>34.851258333333298</v>
+        <v>35.139958364888798</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="str">
         <f t="shared" si="1"/>
-        <v>경상포항시</v>
+        <v>광주남구</v>
       </c>
       <c r="B94" t="s">
-        <v>64</v>
+        <v>216</v>
       </c>
       <c r="C94" t="s">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="D94">
-        <v>129.361666666666</v>
+        <v>126.902557242258</v>
       </c>
       <c r="E94">
-        <v>36.005686111111103</v>
+        <v>35.133017488042199</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="str">
         <f t="shared" si="1"/>
-        <v>경상하동군</v>
+        <v>광주동구</v>
       </c>
       <c r="B95" t="s">
-        <v>64</v>
+        <v>216</v>
       </c>
       <c r="C95" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="D95">
-        <v>127.753430555555</v>
+        <v>126.923090311574</v>
       </c>
       <c r="E95">
-        <v>35.064202777777702</v>
+        <v>35.146277755168299</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="str">
-        <f t="shared" si="1"/>
-        <v>경상함안군</v>
+        <f t="shared" ref="A96:A124" si="2">B96&amp;C96</f>
+        <v>광주북구</v>
       </c>
       <c r="B96" t="s">
-        <v>64</v>
+        <v>216</v>
       </c>
       <c r="C96" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="D96">
-        <v>128.40870833333301</v>
+        <v>126.901080587328</v>
       </c>
       <c r="E96">
-        <v>35.269405555555501</v>
+        <v>35.181213795762297</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="str">
-        <f t="shared" si="1"/>
-        <v>경상함양군</v>
+        <f t="shared" si="2"/>
+        <v>광주서구</v>
       </c>
       <c r="B97" t="s">
-        <v>64</v>
+        <v>216</v>
       </c>
       <c r="C97" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D97">
-        <v>127.727419444444</v>
+        <v>126.88950628089</v>
       </c>
       <c r="E97">
-        <v>35.517469444444401</v>
+        <v>35.152516400497703</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="str">
-        <f t="shared" si="1"/>
-        <v>경상합천군</v>
+        <f t="shared" si="2"/>
+        <v>대구달서구</v>
       </c>
       <c r="B98" t="s">
-        <v>64</v>
+        <v>217</v>
       </c>
       <c r="C98" t="s">
-        <v>121</v>
-      </c>
-      <c r="D98">
-        <v>128.16793055555499</v>
-      </c>
-      <c r="E98">
-        <v>35.563616666666597</v>
+        <v>75</v>
+      </c>
+      <c r="D98" s="1">
+        <v>128.535063888888</v>
+      </c>
+      <c r="E98" s="1">
+        <v>35.826927777777698</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="str">
-        <f t="shared" si="1"/>
-        <v>경상부산시</v>
+        <f t="shared" si="2"/>
+        <v>대구수성구</v>
       </c>
       <c r="B99" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C99" t="s">
-        <v>223</v>
-      </c>
-      <c r="D99">
-        <v>129.07499999999999</v>
-      </c>
-      <c r="E99">
-        <v>35.1798</v>
+        <v>89</v>
+      </c>
+      <c r="D99" s="1">
+        <v>128.63286666666599</v>
+      </c>
+      <c r="E99" s="1">
+        <v>35.855208333333302</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="str">
-        <f t="shared" si="1"/>
-        <v>경상울산시</v>
+        <f t="shared" si="2"/>
+        <v>대구달성군</v>
       </c>
       <c r="B100" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C100" t="s">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="D100">
-        <v>129.31229999999999</v>
+        <v>128.43139949994099</v>
       </c>
       <c r="E100">
-        <v>35.545999999999999</v>
+        <v>35.7747502893017</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="str">
-        <f t="shared" si="1"/>
-        <v>광주시광산구</v>
+        <f t="shared" si="2"/>
+        <v>대구북구</v>
       </c>
       <c r="B101" t="s">
-        <v>28</v>
+        <v>217</v>
       </c>
       <c r="C101" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="D101">
-        <v>126.793668011574</v>
+        <v>128.582892353917</v>
       </c>
       <c r="E101">
-        <v>35.139958364888798</v>
+        <v>35.885864596959799</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="str">
-        <f t="shared" si="1"/>
-        <v>광주시남구</v>
+        <f t="shared" si="2"/>
+        <v>대구서구</v>
       </c>
       <c r="B102" t="s">
-        <v>28</v>
+        <v>217</v>
       </c>
       <c r="C102" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D102">
-        <v>126.902557242258</v>
+        <v>128.55916006925901</v>
       </c>
       <c r="E102">
-        <v>35.133017488042199</v>
+        <v>35.8719405397309</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="str">
-        <f t="shared" si="1"/>
-        <v>광주시동구</v>
+        <f t="shared" si="2"/>
+        <v>대구중구</v>
       </c>
       <c r="B103" t="s">
-        <v>28</v>
+        <v>217</v>
       </c>
       <c r="C103" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D103">
-        <v>126.923090311574</v>
+        <v>128.606174457614</v>
       </c>
       <c r="E103">
-        <v>35.146277755168299</v>
+        <v>35.869527216685803</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="str">
-        <f t="shared" si="1"/>
-        <v>광주시북구</v>
+        <f t="shared" si="2"/>
+        <v>대전대덕구</v>
       </c>
       <c r="B104" t="s">
-        <v>28</v>
+        <v>218</v>
       </c>
       <c r="C104" t="s">
-        <v>86</v>
+        <v>189</v>
       </c>
       <c r="D104">
-        <v>126.901080587328</v>
+        <v>127.41709334052101</v>
       </c>
       <c r="E104">
-        <v>35.181213795762297</v>
+        <v>36.352183835654998</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="str">
-        <f t="shared" si="1"/>
-        <v>광주시서구</v>
+        <f t="shared" si="2"/>
+        <v>대전동구</v>
       </c>
       <c r="B105" t="s">
-        <v>28</v>
+        <v>218</v>
       </c>
       <c r="C105" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D105">
-        <v>126.88950628089</v>
+        <v>127.454859584609</v>
       </c>
       <c r="E105">
-        <v>35.152516400497703</v>
+        <v>36.312040277708398</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="str">
-        <f t="shared" si="1"/>
-        <v>대구시달서구</v>
+        <f t="shared" si="2"/>
+        <v>대전서구</v>
       </c>
       <c r="B106" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C106" t="s">
-        <v>78</v>
-      </c>
-      <c r="D106" s="1">
-        <v>128.535063888888</v>
-      </c>
-      <c r="E106" s="1">
-        <v>35.826927777777698</v>
+        <v>39</v>
+      </c>
+      <c r="D106">
+        <v>127.38341581145301</v>
+      </c>
+      <c r="E106">
+        <v>36.357072989364198</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="str">
-        <f t="shared" si="1"/>
-        <v>대구시수성구</v>
+        <f t="shared" si="2"/>
+        <v>대전유성구</v>
       </c>
       <c r="B107" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C107" t="s">
-        <v>93</v>
-      </c>
-      <c r="D107" s="1">
-        <v>128.63286666666599</v>
-      </c>
-      <c r="E107" s="1">
-        <v>35.855208333333302</v>
+        <v>199</v>
+      </c>
+      <c r="D107">
+        <v>127.35613630159899</v>
+      </c>
+      <c r="E107">
+        <v>36.364055863915802</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="str">
-        <f t="shared" si="1"/>
-        <v>대구시남구</v>
+        <f t="shared" si="2"/>
+        <v>대전중구</v>
       </c>
       <c r="B108" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C108" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D108">
-        <v>128.597702040423</v>
+        <v>127.421380984609</v>
       </c>
       <c r="E108">
-        <v>35.846213507916801</v>
+        <v>36.325829894722602</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="str">
-        <f t="shared" si="1"/>
-        <v>대구시달서구</v>
+        <f t="shared" si="2"/>
+        <v>부산강서구</v>
       </c>
       <c r="B109" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C109" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D109">
-        <v>128.53259045391599</v>
+        <v>128.982908333333</v>
       </c>
       <c r="E109">
-        <v>35.829977438139501</v>
+        <v>35.209163888888803</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="str">
-        <f t="shared" si="1"/>
-        <v>대구시달성군</v>
+        <f t="shared" si="2"/>
+        <v>부산금정구</v>
       </c>
       <c r="B110" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C110" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D110">
-        <v>128.43139949994099</v>
+        <v>129.09431944444401</v>
       </c>
       <c r="E110">
-        <v>35.7747502893017</v>
+        <v>35.240077777777699</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" t="str">
-        <f t="shared" si="1"/>
-        <v>대구시동구</v>
+      <c r="A111" t="s">
+        <v>221</v>
       </c>
       <c r="B111" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C111" t="s">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="D111">
-        <v>128.63555844042301</v>
+        <v>129.2222873</v>
       </c>
       <c r="E111">
-        <v>35.886827278971197</v>
+        <v>35.244775410000003</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="str">
-        <f t="shared" si="1"/>
-        <v>대구시북구</v>
+        <f t="shared" si="2"/>
+        <v>부산남구</v>
       </c>
       <c r="B112" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C112" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="D112">
-        <v>128.582892353917</v>
+        <v>129.0865</v>
       </c>
       <c r="E112">
-        <v>35.885864596959799</v>
+        <v>35.1334083333333</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="str">
-        <f t="shared" si="1"/>
-        <v>대구시서구</v>
+        <f t="shared" si="2"/>
+        <v>부산동구</v>
       </c>
       <c r="B113" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C113" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D113">
-        <v>128.55916006925901</v>
+        <v>129.05917500000001</v>
       </c>
       <c r="E113">
-        <v>35.8719405397309</v>
+        <v>35.135894444444403</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="str">
-        <f t="shared" si="1"/>
-        <v>대구시수성구</v>
+        <f t="shared" si="2"/>
+        <v>부산동래구</v>
       </c>
       <c r="B114" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C114" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D114">
-        <v>128.63070107110701</v>
+        <v>129.08585555555501</v>
       </c>
       <c r="E114">
-        <v>35.858351478627</v>
+        <v>35.2018722222222</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="str">
-        <f t="shared" si="1"/>
-        <v>대구시중구</v>
+        <f t="shared" si="2"/>
+        <v>부산부산진구</v>
       </c>
       <c r="B115" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C115" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="D115">
-        <v>128.606174457614</v>
+        <v>129.055319444444</v>
       </c>
       <c r="E115">
-        <v>35.869527216685803</v>
+        <v>35.159952777777697</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="str">
-        <f t="shared" si="1"/>
-        <v>대전시대덕구</v>
+        <f t="shared" si="2"/>
+        <v>부산북구</v>
       </c>
       <c r="B116" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="C116" t="s">
-        <v>196</v>
+        <v>82</v>
       </c>
       <c r="D116">
-        <v>127.41709334052101</v>
+        <v>128.99247499999899</v>
       </c>
       <c r="E116">
-        <v>36.352183835654998</v>
+        <v>35.194180555555498</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="str">
-        <f t="shared" si="1"/>
-        <v>대전시동구</v>
+        <f t="shared" si="2"/>
+        <v>부산사상구</v>
       </c>
       <c r="B117" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="C117" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="D117">
-        <v>127.454859584609</v>
+        <v>128.993333333333</v>
       </c>
       <c r="E117">
-        <v>36.312040277708398</v>
+        <v>35.149466666666598</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="str">
-        <f t="shared" si="1"/>
-        <v>대전시서구</v>
+        <f t="shared" si="2"/>
+        <v>부산사하구</v>
       </c>
       <c r="B118" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="C118" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D118">
-        <v>127.38341581145301</v>
+        <v>128.977041666666</v>
       </c>
       <c r="E118">
-        <v>36.357072989364198</v>
+        <v>35.101427777777701</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="str">
-        <f t="shared" si="1"/>
-        <v>대전시유성구</v>
+        <f t="shared" si="2"/>
+        <v>부산서구</v>
       </c>
       <c r="B119" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="C119" t="s">
-        <v>208</v>
+        <v>39</v>
       </c>
       <c r="D119">
-        <v>127.35613630159899</v>
+        <v>129.02637777777699</v>
       </c>
       <c r="E119">
-        <v>36.364055863915802</v>
+        <v>35.0948361111111</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="str">
-        <f t="shared" si="1"/>
-        <v>대전시중구</v>
+        <f t="shared" si="2"/>
+        <v>부산수영구</v>
       </c>
       <c r="B120" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="C120" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="D120">
-        <v>127.421380984609</v>
+        <v>129.115375</v>
       </c>
       <c r="E120">
-        <v>36.325829894722602</v>
+        <v>35.1424666666666</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="str">
-        <f t="shared" si="1"/>
-        <v>부산시강서구</v>
+        <f t="shared" si="2"/>
+        <v>부산연제구</v>
       </c>
       <c r="B121" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C121" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D121">
-        <v>128.982908333333</v>
+        <v>129.082075</v>
       </c>
       <c r="E121">
-        <v>35.209163888888803</v>
+        <v>35.1731861111111</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="str">
-        <f t="shared" si="1"/>
-        <v>부산시금정구</v>
+        <f t="shared" si="2"/>
+        <v>부산영도구</v>
       </c>
       <c r="B122" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C122" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="D122">
-        <v>129.09431944444401</v>
+        <v>129.07018611111101</v>
       </c>
       <c r="E122">
-        <v>35.240077777777699</v>
+        <v>35.0881166666666</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="str">
-        <f t="shared" si="1"/>
-        <v>부산시남구</v>
+        <f t="shared" si="2"/>
+        <v>부산중구</v>
       </c>
       <c r="B123" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C123" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D123">
-        <v>129.0865</v>
+        <v>129.03450833333301</v>
       </c>
       <c r="E123">
-        <v>35.1334083333333</v>
+        <v>35.103216666666597</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="str">
-        <f t="shared" si="1"/>
-        <v>부산시동구</v>
+        <f t="shared" si="2"/>
+        <v>부산해운대구</v>
       </c>
       <c r="B124" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C124" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="D124">
-        <v>129.05917500000001</v>
+        <v>129.16580833333299</v>
       </c>
       <c r="E124">
-        <v>35.135894444444403</v>
+        <v>35.160019444444401</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="str">
-        <f t="shared" si="1"/>
-        <v>부산시동래구</v>
+        <f t="shared" ref="A125:A156" si="3">B125&amp;C125</f>
+        <v>서울강남구</v>
       </c>
       <c r="B125" t="s">
-        <v>223</v>
+        <v>118</v>
       </c>
       <c r="C125" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="D125">
-        <v>129.08585555555501</v>
+        <v>127.049555555555</v>
       </c>
       <c r="E125">
-        <v>35.2018722222222</v>
+        <v>37.514575000000001</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="str">
-        <f t="shared" si="1"/>
-        <v>부산시부산진구</v>
+        <f t="shared" si="3"/>
+        <v>서울강동구</v>
       </c>
       <c r="B126" t="s">
-        <v>223</v>
+        <v>118</v>
       </c>
       <c r="C126" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D126">
-        <v>129.055319444444</v>
+        <v>127.12586388888801</v>
       </c>
       <c r="E126">
-        <v>35.159952777777697</v>
+        <v>37.527366666666602</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="str">
-        <f t="shared" ref="A127:A190" si="2">B127&amp;C127</f>
-        <v>부산시북구</v>
+        <f t="shared" si="3"/>
+        <v>서울강북구</v>
       </c>
       <c r="B127" t="s">
-        <v>223</v>
+        <v>118</v>
       </c>
       <c r="C127" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="D127">
-        <v>128.99247499999899</v>
+        <v>127.027719444444</v>
       </c>
       <c r="E127">
-        <v>35.194180555555498</v>
+        <v>37.636955555555502</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="str">
-        <f t="shared" si="2"/>
-        <v>부산시사상구</v>
+        <f t="shared" si="3"/>
+        <v>서울강서구</v>
       </c>
       <c r="B128" t="s">
-        <v>223</v>
+        <v>118</v>
       </c>
       <c r="C128" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="D128">
-        <v>128.993333333333</v>
+        <v>126.851675</v>
       </c>
       <c r="E128">
-        <v>35.149466666666598</v>
+        <v>37.548155555555503</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="str">
-        <f t="shared" si="2"/>
-        <v>부산시사하구</v>
+        <f t="shared" si="3"/>
+        <v>서울관악구</v>
       </c>
       <c r="B129" t="s">
-        <v>223</v>
+        <v>118</v>
       </c>
       <c r="C129" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="D129">
-        <v>128.977041666666</v>
+        <v>126.953844444444</v>
       </c>
       <c r="E129">
-        <v>35.101427777777701</v>
+        <v>37.475386111111099</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="str">
-        <f t="shared" si="2"/>
-        <v>부산시서구</v>
+        <f t="shared" si="3"/>
+        <v>서울광진구</v>
       </c>
       <c r="B130" t="s">
-        <v>223</v>
+        <v>118</v>
       </c>
       <c r="C130" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="D130">
-        <v>129.02637777777699</v>
+        <v>127.084533333333</v>
       </c>
       <c r="E130">
-        <v>35.0948361111111</v>
+        <v>37.535738888888801</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="str">
-        <f t="shared" si="2"/>
-        <v>부산시수영구</v>
+        <f t="shared" si="3"/>
+        <v>서울구로구</v>
       </c>
       <c r="B131" t="s">
-        <v>223</v>
+        <v>118</v>
       </c>
       <c r="C131" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="D131">
-        <v>129.115375</v>
+        <v>126.88959722222199</v>
       </c>
       <c r="E131">
-        <v>35.1424666666666</v>
+        <v>37.492649999999998</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="str">
-        <f t="shared" si="2"/>
-        <v>부산시연제구</v>
+        <f t="shared" si="3"/>
+        <v>서울금천구</v>
       </c>
       <c r="B132" t="s">
-        <v>223</v>
+        <v>118</v>
       </c>
       <c r="C132" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="D132">
-        <v>129.082075</v>
+        <v>126.904197222222</v>
       </c>
       <c r="E132">
-        <v>35.1731861111111</v>
+        <v>37.449108333333299</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="str">
-        <f t="shared" si="2"/>
-        <v>부산시영도구</v>
+        <f t="shared" si="3"/>
+        <v>서울노원구</v>
       </c>
       <c r="B133" t="s">
-        <v>223</v>
+        <v>118</v>
       </c>
       <c r="C133" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="D133">
-        <v>129.07018611111101</v>
+        <v>127.058388888888</v>
       </c>
       <c r="E133">
-        <v>35.0881166666666</v>
+        <v>37.651461111111097</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="str">
-        <f t="shared" si="2"/>
-        <v>부산시중구</v>
+        <f t="shared" si="3"/>
+        <v>서울도봉구</v>
       </c>
       <c r="B134" t="s">
-        <v>223</v>
+        <v>118</v>
       </c>
       <c r="C134" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="D134">
-        <v>129.03450833333301</v>
+        <v>127.049522222222</v>
       </c>
       <c r="E134">
-        <v>35.103216666666597</v>
+        <v>37.665833333333303</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="str">
-        <f t="shared" si="2"/>
-        <v>부산시해운대구</v>
+        <f t="shared" si="3"/>
+        <v>서울동대문구</v>
       </c>
       <c r="B135" t="s">
-        <v>223</v>
+        <v>118</v>
       </c>
       <c r="C135" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D135">
-        <v>129.16580833333299</v>
+        <v>127.042141666666</v>
       </c>
       <c r="E135">
-        <v>35.160019444444401</v>
+        <v>37.571624999999997</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="str">
-        <f t="shared" si="2"/>
-        <v>부산시기장군</v>
+        <f t="shared" si="3"/>
+        <v>서울동작구</v>
       </c>
       <c r="B136" t="s">
-        <v>222</v>
+        <v>118</v>
       </c>
       <c r="C136" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="D136">
-        <v>129.22228728301701</v>
+        <v>126.941575</v>
       </c>
       <c r="E136">
-        <v>35.244775407555402</v>
+        <v>37.509655555555497</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="str">
-        <f t="shared" si="2"/>
-        <v>서울강남구</v>
+        <f t="shared" si="3"/>
+        <v>서울마포구</v>
       </c>
       <c r="B137" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C137" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D137">
-        <v>127.049555555555</v>
+        <v>126.910530555555</v>
       </c>
       <c r="E137">
-        <v>37.514575000000001</v>
+        <v>37.560705555555501</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="str">
-        <f t="shared" si="2"/>
-        <v>서울강동구</v>
+        <f t="shared" si="3"/>
+        <v>서울서대문구</v>
       </c>
       <c r="B138" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C138" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D138">
-        <v>127.12586388888801</v>
+        <v>126.938897222222</v>
       </c>
       <c r="E138">
-        <v>37.527366666666602</v>
+        <v>37.576366666666601</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="str">
-        <f t="shared" si="2"/>
-        <v>서울강북구</v>
+        <f t="shared" si="3"/>
+        <v>서울서초구</v>
       </c>
       <c r="B139" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C139" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D139">
-        <v>127.027719444444</v>
+        <v>127.034811111111</v>
       </c>
       <c r="E139">
-        <v>37.636955555555502</v>
+        <v>37.480786111111101</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="str">
-        <f t="shared" si="2"/>
-        <v>서울강서구</v>
+        <f t="shared" si="3"/>
+        <v>서울성동구</v>
       </c>
       <c r="B140" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C140" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="D140">
-        <v>126.851675</v>
+        <v>127.039</v>
       </c>
       <c r="E140">
-        <v>37.548155555555503</v>
+        <v>37.560611111111101</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="str">
-        <f t="shared" si="2"/>
-        <v>서울관악구</v>
+        <f t="shared" si="3"/>
+        <v>서울성북구</v>
       </c>
       <c r="B141" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C141" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D141">
-        <v>126.953844444444</v>
+        <v>127.020333333333</v>
       </c>
       <c r="E141">
-        <v>37.475386111111099</v>
+        <v>37.586383333333302</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="str">
-        <f t="shared" si="2"/>
-        <v>서울광진구</v>
+        <f t="shared" si="3"/>
+        <v>서울송파구</v>
       </c>
       <c r="B142" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C142" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D142">
-        <v>127.084533333333</v>
+        <v>127.107930555555</v>
       </c>
       <c r="E142">
-        <v>37.535738888888801</v>
+        <v>37.511755555555503</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="str">
-        <f t="shared" si="2"/>
-        <v>서울구로구</v>
+        <f t="shared" si="3"/>
+        <v>서울양천구</v>
       </c>
       <c r="B143" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C143" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D143">
-        <v>126.88959722222199</v>
+        <v>126.868708333333</v>
       </c>
       <c r="E143">
-        <v>37.492649999999998</v>
+        <v>37.5142305555555</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="str">
-        <f t="shared" si="2"/>
-        <v>서울금천구</v>
+        <f t="shared" si="3"/>
+        <v>서울영등포구</v>
       </c>
       <c r="B144" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C144" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D144">
-        <v>126.904197222222</v>
+        <v>126.898341666666</v>
       </c>
       <c r="E144">
-        <v>37.449108333333299</v>
+        <v>37.523611111111101</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="str">
-        <f t="shared" si="2"/>
-        <v>서울노원구</v>
+        <f t="shared" si="3"/>
+        <v>서울용산구</v>
       </c>
       <c r="B145" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C145" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D145">
-        <v>127.058388888888</v>
+        <v>126.967522222222</v>
       </c>
       <c r="E145">
-        <v>37.651461111111097</v>
+        <v>37.536094444444402</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="str">
-        <f t="shared" si="2"/>
-        <v>서울도봉구</v>
+        <f t="shared" si="3"/>
+        <v>서울은평구</v>
       </c>
       <c r="B146" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C146" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D146">
-        <v>127.049522222222</v>
+        <v>126.931241666666</v>
       </c>
       <c r="E146">
-        <v>37.665833333333303</v>
+        <v>37.599969444444397</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="str">
-        <f t="shared" si="2"/>
-        <v>서울동대문구</v>
+        <f t="shared" si="3"/>
+        <v>서울종로구</v>
       </c>
       <c r="B147" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C147" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D147">
-        <v>127.042141666666</v>
+        <v>126.98164166666599</v>
       </c>
       <c r="E147">
-        <v>37.571624999999997</v>
+        <v>37.570377777777701</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="str">
-        <f t="shared" si="2"/>
-        <v>서울동작구</v>
+        <f t="shared" si="3"/>
+        <v>서울중구</v>
       </c>
       <c r="B148" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C148" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="D148">
-        <v>126.941575</v>
+        <v>126.99964166666599</v>
       </c>
       <c r="E148">
-        <v>37.509655555555497</v>
+        <v>37.561002777777702</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="str">
-        <f t="shared" si="2"/>
-        <v>서울마포구</v>
+        <f t="shared" si="3"/>
+        <v>서울중랑구</v>
       </c>
       <c r="B149" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C149" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D149">
-        <v>126.910530555555</v>
+        <v>127.094777777777</v>
       </c>
       <c r="E149">
-        <v>37.560705555555501</v>
+        <v>37.603805555555503</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="str">
-        <f t="shared" si="2"/>
-        <v>서울서대문구</v>
+        <f t="shared" si="3"/>
+        <v>울산남구</v>
       </c>
       <c r="B150" t="s">
-        <v>123</v>
+        <v>220</v>
       </c>
       <c r="C150" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="D150">
-        <v>126.938897222222</v>
+        <v>129.330175357608</v>
       </c>
       <c r="E150">
-        <v>37.576366666666601</v>
+        <v>35.5440426532722</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="str">
-        <f t="shared" si="2"/>
-        <v>서울서초구</v>
+        <f t="shared" si="3"/>
+        <v>울산동구</v>
       </c>
       <c r="B151" t="s">
-        <v>123</v>
+        <v>220</v>
       </c>
       <c r="C151" t="s">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="D151">
-        <v>127.034811111111</v>
+        <v>129.416691882745</v>
       </c>
       <c r="E151">
-        <v>37.480786111111101</v>
+        <v>35.505169963248598</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="str">
-        <f t="shared" si="2"/>
-        <v>서울성동구</v>
+        <f t="shared" si="3"/>
+        <v>울산북구</v>
       </c>
       <c r="B152" t="s">
-        <v>123</v>
+        <v>220</v>
       </c>
       <c r="C152" t="s">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="D152">
-        <v>127.039</v>
+        <v>129.361244971292</v>
       </c>
       <c r="E152">
-        <v>37.560611111111101</v>
+        <v>35.582707831241201</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="str">
-        <f t="shared" si="2"/>
-        <v>서울성북구</v>
+        <f t="shared" si="3"/>
+        <v>울산울주군</v>
       </c>
       <c r="B153" t="s">
-        <v>123</v>
+        <v>220</v>
       </c>
       <c r="C153" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="D153">
-        <v>127.020333333333</v>
+        <v>129.24247481158099</v>
       </c>
       <c r="E153">
-        <v>37.586383333333302</v>
+        <v>35.522306479002197</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="str">
-        <f t="shared" si="2"/>
-        <v>서울송파구</v>
+        <f t="shared" si="3"/>
+        <v>울산중구</v>
       </c>
       <c r="B154" t="s">
-        <v>123</v>
+        <v>220</v>
       </c>
       <c r="C154" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="D154">
-        <v>127.107930555555</v>
+        <v>129.33281621343099</v>
       </c>
       <c r="E154">
-        <v>37.511755555555503</v>
+        <v>35.5697122805921</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="str">
-        <f t="shared" si="2"/>
-        <v>서울양천구</v>
+        <f t="shared" si="3"/>
+        <v>인천계양구</v>
       </c>
       <c r="B155" t="s">
-        <v>123</v>
+        <v>215</v>
       </c>
       <c r="C155" t="s">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="D155">
-        <v>126.868708333333</v>
+        <v>126.737743998125</v>
       </c>
       <c r="E155">
-        <v>37.5142305555555</v>
+        <v>37.537707278885698</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="str">
-        <f t="shared" si="2"/>
-        <v>서울영등포구</v>
+        <f t="shared" si="3"/>
+        <v>인천남동구</v>
       </c>
       <c r="B156" t="s">
-        <v>123</v>
+        <v>215</v>
       </c>
       <c r="C156" t="s">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="D156">
-        <v>126.898341666666</v>
+        <v>126.730966889481</v>
       </c>
       <c r="E156">
-        <v>37.523611111111101</v>
+        <v>37.449710616738201</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="str">
-        <f t="shared" si="2"/>
-        <v>서울용산구</v>
+        <f t="shared" ref="A157:A188" si="4">B157&amp;C157</f>
+        <v>인천동구</v>
       </c>
       <c r="B157" t="s">
-        <v>123</v>
+        <v>215</v>
       </c>
       <c r="C157" t="s">
-        <v>143</v>
+        <v>35</v>
       </c>
       <c r="D157">
-        <v>126.967522222222</v>
+        <v>126.643244069288</v>
       </c>
       <c r="E157">
-        <v>37.536094444444402</v>
+        <v>37.474016074390001</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="str">
-        <f t="shared" si="2"/>
-        <v>서울은평구</v>
+        <f t="shared" si="4"/>
+        <v>인천부평구</v>
       </c>
       <c r="B158" t="s">
-        <v>123</v>
+        <v>215</v>
       </c>
       <c r="C158" t="s">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="D158">
-        <v>126.931241666666</v>
+        <v>126.72190684853101</v>
       </c>
       <c r="E158">
-        <v>37.599969444444397</v>
+        <v>37.507842037255898</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="str">
-        <f t="shared" si="2"/>
-        <v>서울종로구</v>
+        <f t="shared" si="4"/>
+        <v>인천서구</v>
       </c>
       <c r="B159" t="s">
-        <v>123</v>
+        <v>215</v>
       </c>
       <c r="C159" t="s">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="D159">
-        <v>126.98164166666599</v>
+        <v>126.675961611619</v>
       </c>
       <c r="E159">
-        <v>37.570377777777701</v>
+        <v>37.545463718042903</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="str">
-        <f t="shared" si="2"/>
-        <v>서울중구</v>
+        <f t="shared" si="4"/>
+        <v>인천연수구</v>
       </c>
       <c r="B160" t="s">
-        <v>123</v>
+        <v>215</v>
       </c>
       <c r="C160" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D160">
-        <v>126.99964166666599</v>
+        <v>126.678265782781</v>
       </c>
       <c r="E160">
-        <v>37.561002777777702</v>
+        <v>37.410381251202402</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="str">
-        <f t="shared" si="2"/>
-        <v>서울중랑구</v>
+        <f t="shared" si="4"/>
+        <v>인천중구</v>
       </c>
       <c r="B161" t="s">
-        <v>123</v>
+        <v>215</v>
       </c>
       <c r="C161" t="s">
-        <v>146</v>
+        <v>56</v>
       </c>
       <c r="D161">
-        <v>127.094777777777</v>
+        <v>126.62176169997301</v>
       </c>
       <c r="E161">
-        <v>37.603805555555503</v>
+        <v>37.473848430504297</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="str">
-        <f t="shared" si="2"/>
-        <v>울산시남구</v>
+        <f t="shared" si="4"/>
+        <v>전라강진군</v>
       </c>
       <c r="B162" t="s">
-        <v>227</v>
+        <v>142</v>
       </c>
       <c r="C162" t="s">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="D162">
-        <v>129.330175357608</v>
+        <v>126.769197222222</v>
       </c>
       <c r="E162">
-        <v>35.5440426532722</v>
+        <v>34.638911111111099</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="str">
-        <f t="shared" si="2"/>
-        <v>울산시동구</v>
+        <f t="shared" si="4"/>
+        <v>전라고창군</v>
       </c>
       <c r="B163" t="s">
-        <v>227</v>
+        <v>142</v>
       </c>
       <c r="C163" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="D163">
-        <v>129.416691882745</v>
+        <v>126.704108333333</v>
       </c>
       <c r="E163">
-        <v>35.505169963248598</v>
+        <v>35.4327388888888</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="str">
-        <f t="shared" si="2"/>
-        <v>울산시북구</v>
+        <f t="shared" si="4"/>
+        <v>전라고흥군</v>
       </c>
       <c r="B164" t="s">
-        <v>227</v>
+        <v>142</v>
       </c>
       <c r="C164" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="D164">
-        <v>129.361244971292</v>
+        <v>127.287055555555</v>
       </c>
       <c r="E164">
-        <v>35.582707831241201</v>
+        <v>34.608069444444403</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="str">
-        <f t="shared" si="2"/>
-        <v>울산시울주군</v>
+        <f t="shared" si="4"/>
+        <v>전라곡성군</v>
       </c>
       <c r="B165" t="s">
-        <v>227</v>
+        <v>142</v>
       </c>
       <c r="C165" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="D165">
-        <v>129.24247481158099</v>
+        <v>127.294108333333</v>
       </c>
       <c r="E165">
-        <v>35.522306479002197</v>
+        <v>35.278955555555498</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="str">
-        <f t="shared" si="2"/>
-        <v>울산시중구</v>
+        <f t="shared" si="4"/>
+        <v>전라광양시</v>
       </c>
       <c r="B166" t="s">
-        <v>227</v>
+        <v>142</v>
       </c>
       <c r="C166" t="s">
-        <v>58</v>
+        <v>148</v>
       </c>
       <c r="D166">
-        <v>129.33281621343099</v>
+        <v>127.698177777777</v>
       </c>
       <c r="E166">
-        <v>35.5697122805921</v>
+        <v>34.9375361111111</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="str">
-        <f t="shared" si="2"/>
-        <v>인천시강화군</v>
+        <f t="shared" si="4"/>
+        <v>전라구례군</v>
       </c>
       <c r="B167" t="s">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="C167" t="s">
-        <v>23</v>
+        <v>149</v>
       </c>
       <c r="D167">
-        <v>126.48784171162301</v>
+        <v>127.46493333333299</v>
       </c>
       <c r="E167">
-        <v>37.746929069686502</v>
+        <v>35.199458333333297</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="str">
-        <f t="shared" si="2"/>
-        <v>인천시계양구</v>
+        <f t="shared" si="4"/>
+        <v>전라군산시</v>
       </c>
       <c r="B168" t="s">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="C168" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="D168">
-        <v>126.737743998125</v>
+        <v>126.738844444444</v>
       </c>
       <c r="E168">
-        <v>37.537707278885698</v>
+        <v>35.964641666666601</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="str">
-        <f t="shared" si="2"/>
-        <v>인천시남구</v>
+        <f t="shared" si="4"/>
+        <v>전라김제시</v>
       </c>
       <c r="B169" t="s">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="C169" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="D169">
-        <v>126.650297226959</v>
+        <v>126.882752777777</v>
       </c>
       <c r="E169">
-        <v>37.463691693416699</v>
+        <v>35.800574999999903</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="str">
-        <f t="shared" si="2"/>
-        <v>인천시남동구</v>
+        <f t="shared" si="4"/>
+        <v>전라나주시</v>
       </c>
       <c r="B170" t="s">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="C170" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="D170">
-        <v>126.730966889481</v>
+        <v>126.712866666666</v>
       </c>
       <c r="E170">
-        <v>37.449710616738201</v>
+        <v>35.012838888888801</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="str">
-        <f t="shared" si="2"/>
-        <v>인천시동구</v>
+        <f t="shared" si="4"/>
+        <v>전라남원시</v>
       </c>
       <c r="B171" t="s">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="C171" t="s">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="D171">
-        <v>126.643244069288</v>
+        <v>127.3925</v>
       </c>
       <c r="E171">
-        <v>37.474016074390001</v>
+        <v>35.413255555555502</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="str">
-        <f t="shared" si="2"/>
-        <v>인천시미추홀구</v>
+        <f t="shared" si="4"/>
+        <v>전라담양군</v>
       </c>
       <c r="B172" t="s">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="C172" t="s">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="D172">
-        <v>126.650297226959</v>
+        <v>126.99016388888801</v>
       </c>
       <c r="E172">
-        <v>37.463691693416699</v>
+        <v>35.318125000000002</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="str">
-        <f t="shared" si="2"/>
-        <v>인천시부평구</v>
+        <f t="shared" si="4"/>
+        <v>전라목포시</v>
       </c>
       <c r="B173" t="s">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="C173" t="s">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="D173">
-        <v>126.72190684853101</v>
+        <v>126.394419444444</v>
       </c>
       <c r="E173">
-        <v>37.507842037255898</v>
+        <v>34.808788888888799</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="str">
-        <f t="shared" si="2"/>
-        <v>인천시서구</v>
+        <f t="shared" si="4"/>
+        <v>전라무안군</v>
       </c>
       <c r="B174" t="s">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="C174" t="s">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="D174">
-        <v>126.675961611619</v>
+        <v>126.4837</v>
       </c>
       <c r="E174">
-        <v>37.545463718042903</v>
+        <v>34.987369444444397</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="str">
-        <f t="shared" si="2"/>
-        <v>인천시연수구</v>
+        <f t="shared" si="4"/>
+        <v>전라무주군</v>
       </c>
       <c r="B175" t="s">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="C175" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="D175">
-        <v>126.678265782781</v>
+        <v>127.66286666666601</v>
       </c>
       <c r="E175">
-        <v>37.410381251202402</v>
+        <v>36.003827777777701</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="str">
-        <f t="shared" si="2"/>
-        <v>인천시중구</v>
+        <f t="shared" si="4"/>
+        <v>전라보성군</v>
       </c>
       <c r="B176" t="s">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="C176" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="D176">
-        <v>126.62176169997301</v>
+        <v>127.08208888888799</v>
       </c>
       <c r="E176">
-        <v>37.473848430504297</v>
+        <v>34.768333333333302</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="str">
-        <f t="shared" si="2"/>
-        <v>전라강진군</v>
+        <f t="shared" si="4"/>
+        <v>전라부안군</v>
       </c>
       <c r="B177" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C177" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D177">
-        <v>126.769197222222</v>
+        <v>126.735677777777</v>
       </c>
       <c r="E177">
-        <v>34.638911111111099</v>
+        <v>35.728533333333303</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="str">
-        <f t="shared" si="2"/>
-        <v>전라고창군</v>
+        <f t="shared" si="4"/>
+        <v>전라순창군</v>
       </c>
       <c r="B178" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C178" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="D178">
-        <v>126.704108333333</v>
+        <v>127.139630555555</v>
       </c>
       <c r="E178">
-        <v>35.4327388888888</v>
+        <v>35.371388888888802</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="str">
-        <f t="shared" si="2"/>
-        <v>전라고흥군</v>
+        <f t="shared" si="4"/>
+        <v>전라순천시</v>
       </c>
       <c r="B179" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C179" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="D179">
-        <v>127.287055555555</v>
+        <v>127.489330555555</v>
       </c>
       <c r="E179">
-        <v>34.608069444444403</v>
+        <v>34.947605555555498</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="str">
-        <f t="shared" si="2"/>
-        <v>전라곡성군</v>
+        <f t="shared" si="4"/>
+        <v>전라신안군</v>
       </c>
       <c r="B180" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C180" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D180">
-        <v>127.294108333333</v>
+        <v>126.381730555555</v>
       </c>
       <c r="E180">
-        <v>35.278955555555498</v>
+        <v>34.789811111111099</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="str">
-        <f t="shared" si="2"/>
-        <v>전라광양시</v>
+        <f t="shared" si="4"/>
+        <v>전라여수시</v>
       </c>
       <c r="B181" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C181" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D181">
-        <v>127.698177777777</v>
+        <v>127.664386111111</v>
       </c>
       <c r="E181">
-        <v>34.9375361111111</v>
+        <v>34.7573111111111</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="str">
-        <f t="shared" si="2"/>
-        <v>전라구례군</v>
+        <f t="shared" si="4"/>
+        <v>전라영광군</v>
       </c>
       <c r="B182" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C182" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D182">
-        <v>127.46493333333299</v>
+        <v>126.514086111111</v>
       </c>
       <c r="E182">
-        <v>35.199458333333297</v>
+        <v>35.274166666666602</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="str">
-        <f t="shared" si="2"/>
-        <v>전라군산시</v>
+        <f t="shared" si="4"/>
+        <v>전라영암군</v>
       </c>
       <c r="B183" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C183" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D183">
-        <v>126.738844444444</v>
+        <v>126.69861944444401</v>
       </c>
       <c r="E183">
-        <v>35.964641666666601</v>
+        <v>34.796988888888798</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="str">
-        <f t="shared" si="2"/>
-        <v>전라김제시</v>
+        <f t="shared" si="4"/>
+        <v>전라완도군</v>
       </c>
       <c r="B184" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C184" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D184">
-        <v>126.882752777777</v>
+        <v>126.757097222222</v>
       </c>
       <c r="E184">
-        <v>35.800574999999903</v>
+        <v>34.307852777777697</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="str">
-        <f t="shared" si="2"/>
-        <v>전라나주시</v>
+        <f t="shared" si="4"/>
+        <v>전라완주군</v>
       </c>
       <c r="B185" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C185" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="D185">
-        <v>126.712866666666</v>
+        <v>127.149597222222</v>
       </c>
       <c r="E185">
-        <v>35.012838888888801</v>
+        <v>35.8429694444444</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="str">
-        <f t="shared" si="2"/>
-        <v>전라남원시</v>
+        <f t="shared" si="4"/>
+        <v>전라익산시</v>
       </c>
       <c r="B186" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C186" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D186">
-        <v>127.3925</v>
+        <v>126.959852777777</v>
       </c>
       <c r="E186">
-        <v>35.413255555555502</v>
+        <v>35.945274999999903</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="str">
-        <f t="shared" si="2"/>
-        <v>전라담양군</v>
+        <f t="shared" si="4"/>
+        <v>전라임실군</v>
       </c>
       <c r="B187" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C187" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D187">
-        <v>126.99016388888801</v>
+        <v>127.284752777777</v>
       </c>
       <c r="E187">
-        <v>35.318125000000002</v>
+        <v>35.6080638888888</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="str">
-        <f t="shared" si="2"/>
-        <v>전라목포시</v>
+        <f t="shared" si="4"/>
+        <v>전라장성군</v>
       </c>
       <c r="B188" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C188" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D188">
-        <v>126.394419444444</v>
+        <v>126.786975</v>
       </c>
       <c r="E188">
-        <v>34.808788888888799</v>
+        <v>35.2988111111111</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="str">
-        <f t="shared" si="2"/>
-        <v>전라무안군</v>
+        <f t="shared" ref="A189:A219" si="5">B189&amp;C189</f>
+        <v>전라장수군</v>
       </c>
       <c r="B189" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C189" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="D189">
-        <v>126.4837</v>
+        <v>127.52330000000001</v>
       </c>
       <c r="E189">
-        <v>34.987369444444397</v>
+        <v>35.6442972222222</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="str">
-        <f t="shared" si="2"/>
-        <v>전라무주군</v>
+        <f t="shared" si="5"/>
+        <v>전라장흥군</v>
       </c>
       <c r="B190" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C190" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="D190">
-        <v>127.66286666666601</v>
+        <v>126.90910833333299</v>
       </c>
       <c r="E190">
-        <v>36.003827777777701</v>
+        <v>34.678525</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="str">
-        <f t="shared" ref="A191:A223" si="3">B191&amp;C191</f>
-        <v>전라보성군</v>
+        <f t="shared" si="5"/>
+        <v>전라전주시</v>
       </c>
       <c r="B191" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C191" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="D191">
-        <v>127.08208888888799</v>
+        <v>127.121919444444</v>
       </c>
       <c r="E191">
-        <v>34.768333333333302</v>
+        <v>35.809188888888798</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="str">
-        <f t="shared" si="3"/>
-        <v>전라부안군</v>
+        <f t="shared" si="5"/>
+        <v>전라정읍시</v>
       </c>
       <c r="B192" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C192" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="D192">
-        <v>126.735677777777</v>
+        <v>126.858111111111</v>
       </c>
       <c r="E192">
-        <v>35.728533333333303</v>
+        <v>35.566872222222202</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="str">
-        <f t="shared" si="3"/>
-        <v>전라순창군</v>
+        <f t="shared" si="5"/>
+        <v>전라진도군</v>
       </c>
       <c r="B193" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C193" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="D193">
-        <v>127.139630555555</v>
+        <v>126.265544444444</v>
       </c>
       <c r="E193">
-        <v>35.371388888888802</v>
+        <v>34.483750000000001</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="str">
-        <f t="shared" si="3"/>
-        <v>전라순천시</v>
+        <f t="shared" si="5"/>
+        <v>전라진안군</v>
       </c>
       <c r="B194" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C194" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="D194">
-        <v>127.489330555555</v>
+        <v>127.426966666666</v>
       </c>
       <c r="E194">
-        <v>34.947605555555498</v>
+        <v>35.788719444444403</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="str">
-        <f t="shared" si="3"/>
-        <v>전라신안군</v>
+        <f t="shared" si="5"/>
+        <v>전라함평군</v>
       </c>
       <c r="B195" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C195" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="D195">
-        <v>126.381730555555</v>
+        <v>126.518619444444</v>
       </c>
       <c r="E195">
-        <v>34.789811111111099</v>
+        <v>35.062744444444398</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="str">
-        <f t="shared" si="3"/>
-        <v>전라여수시</v>
+        <f t="shared" si="5"/>
+        <v>전라해남군</v>
       </c>
       <c r="B196" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C196" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="D196">
-        <v>127.664386111111</v>
+        <v>126.60128888888801</v>
       </c>
       <c r="E196">
-        <v>34.7573111111111</v>
+        <v>34.5704361111111</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="str">
-        <f t="shared" si="3"/>
-        <v>전라영광군</v>
+        <f t="shared" si="5"/>
+        <v>전라화순군</v>
       </c>
       <c r="B197" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C197" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D197">
-        <v>126.514086111111</v>
+        <v>126.988566666666</v>
       </c>
       <c r="E197">
-        <v>35.274166666666602</v>
+        <v>35.061480555555498</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="str">
-        <f t="shared" si="3"/>
-        <v>전라영암군</v>
+        <f t="shared" si="5"/>
+        <v>제주서귀포시</v>
       </c>
       <c r="B198" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="C198" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="D198">
-        <v>126.69861944444401</v>
+        <v>126.512555555555</v>
       </c>
       <c r="E198">
-        <v>34.796988888888798</v>
+        <v>33.25235</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="str">
-        <f t="shared" si="3"/>
-        <v>전라완도군</v>
+        <f t="shared" si="5"/>
+        <v>제주제주시</v>
       </c>
       <c r="B199" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="C199" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="D199">
-        <v>126.757097222222</v>
+        <v>126.53320833333299</v>
       </c>
       <c r="E199">
-        <v>34.307852777777697</v>
+        <v>33.496311111111098</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="str">
-        <f t="shared" si="3"/>
-        <v>전라완주군</v>
+        <f t="shared" si="5"/>
+        <v>충청계룡시</v>
       </c>
       <c r="B200" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="C200" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="D200">
-        <v>127.149597222222</v>
+        <v>127.250930555555</v>
       </c>
       <c r="E200">
-        <v>35.8429694444444</v>
+        <v>36.271836111111099</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="str">
-        <f t="shared" si="3"/>
-        <v>전라익산시</v>
+        <f t="shared" si="5"/>
+        <v>충청공주시</v>
       </c>
       <c r="B201" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="C201" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="D201">
-        <v>126.959852777777</v>
+        <v>127.12111944444401</v>
       </c>
       <c r="E201">
-        <v>35.945274999999903</v>
+        <v>36.443613888888798</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="str">
-        <f t="shared" si="3"/>
-        <v>전라임실군</v>
+        <f t="shared" si="5"/>
+        <v>충청괴산군</v>
       </c>
       <c r="B202" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="C202" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="D202">
-        <v>127.284752777777</v>
+        <v>127.78883055555499</v>
       </c>
       <c r="E202">
-        <v>35.6080638888888</v>
+        <v>36.812430555555501</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="str">
-        <f t="shared" si="3"/>
-        <v>전라장성군</v>
+        <f t="shared" si="5"/>
+        <v>충청금산군</v>
       </c>
       <c r="B203" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="C203" t="s">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="D203">
-        <v>126.786975</v>
+        <v>127.488</v>
       </c>
       <c r="E203">
-        <v>35.2988111111111</v>
+        <v>36.037999999999997</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="str">
-        <f t="shared" si="3"/>
-        <v>전라장수군</v>
+        <f t="shared" si="5"/>
+        <v>충청논산시</v>
       </c>
       <c r="B204" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="C204" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="D204">
-        <v>127.52330000000001</v>
+        <v>127.100911111111</v>
       </c>
       <c r="E204">
-        <v>35.6442972222222</v>
+        <v>36.184202777777699</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="str">
-        <f t="shared" si="3"/>
-        <v>전라장흥군</v>
+        <f t="shared" si="5"/>
+        <v>충청단양군</v>
       </c>
       <c r="B205" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="C205" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D205">
-        <v>126.90910833333299</v>
+        <v>128.36784166666601</v>
       </c>
       <c r="E205">
-        <v>34.678525</v>
+        <v>36.981780555555503</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="str">
-        <f t="shared" si="3"/>
-        <v>전라전주시</v>
+        <f t="shared" si="5"/>
+        <v>충청보령시</v>
       </c>
       <c r="B206" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="C206" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="D206">
-        <v>127.121919444444</v>
+        <v>126.61488611111101</v>
       </c>
       <c r="E206">
-        <v>35.809188888888798</v>
+        <v>36.330575000000003</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="str">
-        <f t="shared" si="3"/>
-        <v>전라정읍시</v>
+        <f t="shared" si="5"/>
+        <v>충청보은군</v>
       </c>
       <c r="B207" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="C207" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="D207">
-        <v>126.858111111111</v>
+        <v>127.731608333333</v>
       </c>
       <c r="E207">
-        <v>35.566872222222202</v>
+        <v>36.486533333333298</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="str">
-        <f t="shared" si="3"/>
-        <v>전라진도군</v>
+        <f t="shared" si="5"/>
+        <v>충청부여군</v>
       </c>
       <c r="B208" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="C208" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="D208">
-        <v>126.265544444444</v>
+        <v>126.91186388888801</v>
       </c>
       <c r="E208">
-        <v>34.483750000000001</v>
+        <v>36.272822222222203</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="str">
-        <f t="shared" si="3"/>
-        <v>전라진안군</v>
+        <f t="shared" si="5"/>
+        <v>충청서산시</v>
       </c>
       <c r="B209" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="C209" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="D209">
-        <v>127.426966666666</v>
+        <v>126.45216388888799</v>
       </c>
       <c r="E209">
-        <v>35.788719444444403</v>
+        <v>36.782097222222198</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="str">
-        <f t="shared" si="3"/>
-        <v>전라함평군</v>
+        <f t="shared" si="5"/>
+        <v>충청서천군</v>
       </c>
       <c r="B210" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="C210" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="D210">
-        <v>126.518619444444</v>
+        <v>126.693888888888</v>
       </c>
       <c r="E210">
-        <v>35.062744444444398</v>
+        <v>36.077405555555501</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="str">
-        <f t="shared" si="3"/>
-        <v>전라해남군</v>
+        <f t="shared" si="5"/>
+        <v>충청아산시</v>
       </c>
       <c r="B211" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="C211" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="D211">
-        <v>126.60128888888801</v>
+        <v>127.004641666666</v>
       </c>
       <c r="E211">
-        <v>34.5704361111111</v>
+        <v>36.787105555555499</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="str">
-        <f t="shared" si="3"/>
-        <v>전라화순군</v>
+        <f t="shared" si="5"/>
+        <v>충청영동군</v>
       </c>
       <c r="B212" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="C212" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="D212">
-        <v>126.988566666666</v>
+        <v>127.785611111111</v>
       </c>
       <c r="E212">
-        <v>35.061480555555498</v>
+        <v>36.172058333333297</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="str">
-        <f t="shared" si="3"/>
-        <v>전라광주시</v>
+        <f t="shared" si="5"/>
+        <v>충청예산군</v>
       </c>
       <c r="B213" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="C213" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="D213">
-        <v>127.25515690430601</v>
+        <v>126.85087499999899</v>
       </c>
       <c r="E213">
-        <v>37.4294981417871</v>
+        <v>36.679805555555497</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="str">
-        <f t="shared" si="3"/>
-        <v>제주서귀포시</v>
+        <f t="shared" si="5"/>
+        <v>충청옥천군</v>
       </c>
       <c r="B214" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C214" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="D214">
-        <v>126.512555555555</v>
+        <v>127.57363333333301</v>
       </c>
       <c r="E214">
-        <v>33.25235</v>
+        <v>36.303549999999902</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="str">
-        <f t="shared" si="3"/>
-        <v>제주제주시</v>
+        <f t="shared" si="5"/>
+        <v>충청음성군</v>
       </c>
       <c r="B215" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C215" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="D215">
-        <v>126.53320833333299</v>
+        <v>127.692622222222</v>
       </c>
       <c r="E215">
-        <v>33.496311111111098</v>
+        <v>36.9374055555555</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="str">
-        <f t="shared" si="3"/>
-        <v>충청계룡시</v>
+        <f t="shared" si="5"/>
+        <v>충청제천시</v>
       </c>
       <c r="B216" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C216" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="D216">
-        <v>127.250930555555</v>
+        <v>128.19315277777699</v>
       </c>
       <c r="E216">
-        <v>36.271836111111099</v>
+        <v>37.129769444444399</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="str">
-        <f t="shared" si="3"/>
-        <v>충청공주시</v>
+        <f t="shared" si="5"/>
+        <v>충청증평군</v>
       </c>
       <c r="B217" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C217" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D217">
-        <v>127.12111944444401</v>
+        <v>127.58328888888801</v>
       </c>
       <c r="E217">
-        <v>36.443613888888798</v>
+        <v>36.782180555555499</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="str">
-        <f t="shared" si="3"/>
-        <v>충청괴산군</v>
+        <f t="shared" si="5"/>
+        <v>충청진천군</v>
       </c>
       <c r="B218" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C218" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="D218">
-        <v>127.78883055555499</v>
+        <v>127.437644444444</v>
       </c>
       <c r="E218">
-        <v>36.812430555555501</v>
+        <v>36.852538888888802</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="str">
-        <f t="shared" si="3"/>
-        <v>충청논산시</v>
+        <f t="shared" si="5"/>
+        <v>충청천안시</v>
       </c>
       <c r="B219" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C219" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="D219">
-        <v>127.100911111111</v>
+        <v>127.152466666666</v>
       </c>
       <c r="E219">
-        <v>36.184202777777699</v>
+        <v>36.804124999999999</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="str">
-        <f t="shared" si="3"/>
-        <v>충청단양군</v>
+        <f t="shared" ref="A220:A224" si="6">B220&amp;C220</f>
+        <v>충청청양군</v>
       </c>
       <c r="B220" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C220" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="D220">
-        <v>128.36784166666601</v>
+        <v>126.804255555555</v>
       </c>
       <c r="E220">
-        <v>36.981780555555503</v>
+        <v>36.456269444444402</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="str">
-        <f t="shared" si="3"/>
-        <v>충청당진군</v>
+        <f t="shared" si="6"/>
+        <v>충청청주시</v>
       </c>
       <c r="B221" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C221" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="D221">
-        <v>127.684597</v>
+        <v>127.511730555555</v>
       </c>
       <c r="E221">
-        <v>36.881996999999998</v>
+        <v>36.583997222222202</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="str">
-        <f t="shared" si="3"/>
-        <v>충청당진시</v>
+        <f t="shared" si="6"/>
+        <v>충청충주시</v>
       </c>
       <c r="B222" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C222" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="D222">
-        <v>126.630252777777</v>
+        <v>127.928144444444</v>
       </c>
       <c r="E222">
-        <v>36.890749999999997</v>
+        <v>36.988180555555502</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="str">
-        <f t="shared" si="3"/>
-        <v>충청보령시</v>
+        <f t="shared" si="6"/>
+        <v>충청태안군</v>
       </c>
       <c r="B223" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C223" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="D223">
-        <v>126.61488611111101</v>
+        <v>126.299975</v>
       </c>
       <c r="E223">
-        <v>36.330575000000003</v>
+        <v>36.742666666666601</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="str">
-        <f t="shared" ref="A224:A245" si="4">B224&amp;C224</f>
-        <v>충청보은군</v>
+        <f t="shared" si="6"/>
+        <v>충청홍성군</v>
       </c>
       <c r="B224" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C224" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="D224">
-        <v>127.731608333333</v>
+        <v>126.66290833333299</v>
       </c>
       <c r="E224">
-        <v>36.486533333333298</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A225" t="str">
-        <f t="shared" si="4"/>
-        <v>충청부강면</v>
-      </c>
-      <c r="B225" t="s">
-        <v>188</v>
-      </c>
-      <c r="C225" t="s">
-        <v>199</v>
-      </c>
-      <c r="D225">
-        <v>127.37037599999999</v>
-      </c>
-      <c r="E225">
-        <v>36.527112000000002</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A226" t="str">
-        <f t="shared" si="4"/>
-        <v>충청부여군</v>
-      </c>
-      <c r="B226" t="s">
-        <v>188</v>
-      </c>
-      <c r="C226" t="s">
-        <v>200</v>
-      </c>
-      <c r="D226">
-        <v>126.91186388888801</v>
-      </c>
-      <c r="E226">
-        <v>36.272822222222203</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A227" t="str">
-        <f t="shared" si="4"/>
-        <v>충청서산시</v>
-      </c>
-      <c r="B227" t="s">
-        <v>188</v>
-      </c>
-      <c r="C227" t="s">
-        <v>201</v>
-      </c>
-      <c r="D227">
-        <v>126.45216388888799</v>
-      </c>
-      <c r="E227">
-        <v>36.782097222222198</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A228" t="str">
-        <f t="shared" si="4"/>
-        <v>충청서천군</v>
-      </c>
-      <c r="B228" t="s">
-        <v>188</v>
-      </c>
-      <c r="C228" t="s">
-        <v>202</v>
-      </c>
-      <c r="D228">
-        <v>126.693888888888</v>
-      </c>
-      <c r="E228">
-        <v>36.077405555555501</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A229" t="str">
-        <f t="shared" si="4"/>
-        <v>충청아산시</v>
-      </c>
-      <c r="B229" t="s">
-        <v>188</v>
-      </c>
-      <c r="C229" t="s">
-        <v>203</v>
-      </c>
-      <c r="D229">
-        <v>127.004641666666</v>
-      </c>
-      <c r="E229">
-        <v>36.787105555555499</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A230" t="str">
-        <f t="shared" si="4"/>
-        <v>충청연기군</v>
-      </c>
-      <c r="B230" t="s">
-        <v>188</v>
-      </c>
-      <c r="C230" t="s">
-        <v>204</v>
-      </c>
-      <c r="D230">
-        <v>127.282781</v>
-      </c>
-      <c r="E230">
-        <v>36.474615999999997</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A231" t="str">
-        <f t="shared" si="4"/>
-        <v>충청영동군</v>
-      </c>
-      <c r="B231" t="s">
-        <v>188</v>
-      </c>
-      <c r="C231" t="s">
-        <v>205</v>
-      </c>
-      <c r="D231">
-        <v>127.785611111111</v>
-      </c>
-      <c r="E231">
-        <v>36.172058333333297</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A232" t="str">
-        <f t="shared" si="4"/>
-        <v>충청예산군</v>
-      </c>
-      <c r="B232" t="s">
-        <v>188</v>
-      </c>
-      <c r="C232" t="s">
-        <v>206</v>
-      </c>
-      <c r="D232">
-        <v>126.85087499999899</v>
-      </c>
-      <c r="E232">
-        <v>36.679805555555497</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A233" t="str">
-        <f t="shared" si="4"/>
-        <v>충청옥천군</v>
-      </c>
-      <c r="B233" t="s">
-        <v>188</v>
-      </c>
-      <c r="C233" t="s">
-        <v>207</v>
-      </c>
-      <c r="D233">
-        <v>127.57363333333301</v>
-      </c>
-      <c r="E233">
-        <v>36.303549999999902</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A234" t="str">
-        <f t="shared" si="4"/>
-        <v>충청음성군</v>
-      </c>
-      <c r="B234" t="s">
-        <v>188</v>
-      </c>
-      <c r="C234" t="s">
-        <v>209</v>
-      </c>
-      <c r="D234">
-        <v>127.692622222222</v>
-      </c>
-      <c r="E234">
-        <v>36.9374055555555</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A235" t="str">
-        <f t="shared" si="4"/>
-        <v>충청제천시</v>
-      </c>
-      <c r="B235" t="s">
-        <v>188</v>
-      </c>
-      <c r="C235" t="s">
-        <v>210</v>
-      </c>
-      <c r="D235">
-        <v>128.19315277777699</v>
-      </c>
-      <c r="E235">
-        <v>37.129769444444399</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A236" t="str">
-        <f t="shared" si="4"/>
-        <v>충청증평군</v>
-      </c>
-      <c r="B236" t="s">
-        <v>188</v>
-      </c>
-      <c r="C236" t="s">
-        <v>211</v>
-      </c>
-      <c r="D236">
-        <v>127.58328888888801</v>
-      </c>
-      <c r="E236">
-        <v>36.782180555555499</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A237" t="str">
-        <f t="shared" si="4"/>
-        <v>충청진천군</v>
-      </c>
-      <c r="B237" t="s">
-        <v>188</v>
-      </c>
-      <c r="C237" t="s">
-        <v>212</v>
-      </c>
-      <c r="D237">
-        <v>127.437644444444</v>
-      </c>
-      <c r="E237">
-        <v>36.852538888888802</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A238" t="str">
-        <f t="shared" si="4"/>
-        <v>충청천안시</v>
-      </c>
-      <c r="B238" t="s">
-        <v>188</v>
-      </c>
-      <c r="C238" t="s">
-        <v>213</v>
-      </c>
-      <c r="D238">
-        <v>127.152466666666</v>
-      </c>
-      <c r="E238">
-        <v>36.804124999999999</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A239" t="str">
-        <f t="shared" si="4"/>
-        <v>충청청양군</v>
-      </c>
-      <c r="B239" t="s">
-        <v>188</v>
-      </c>
-      <c r="C239" t="s">
-        <v>214</v>
-      </c>
-      <c r="D239">
-        <v>126.804255555555</v>
-      </c>
-      <c r="E239">
-        <v>36.456269444444402</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A240" t="str">
-        <f t="shared" si="4"/>
-        <v>충청청원군</v>
-      </c>
-      <c r="B240" t="s">
-        <v>188</v>
-      </c>
-      <c r="C240" t="s">
-        <v>215</v>
-      </c>
-      <c r="D240">
-        <v>127.431119</v>
-      </c>
-      <c r="E240">
-        <v>36.549748000000001</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A241" t="str">
-        <f t="shared" si="4"/>
-        <v>충청청주시</v>
-      </c>
-      <c r="B241" t="s">
-        <v>188</v>
-      </c>
-      <c r="C241" t="s">
-        <v>216</v>
-      </c>
-      <c r="D241">
-        <v>127.511730555555</v>
-      </c>
-      <c r="E241">
-        <v>36.583997222222202</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A242" t="str">
-        <f t="shared" si="4"/>
-        <v>충청충주시</v>
-      </c>
-      <c r="B242" t="s">
-        <v>188</v>
-      </c>
-      <c r="C242" t="s">
-        <v>217</v>
-      </c>
-      <c r="D242">
-        <v>127.928144444444</v>
-      </c>
-      <c r="E242">
-        <v>36.988180555555502</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A243" t="str">
-        <f t="shared" si="4"/>
-        <v>충청태안군</v>
-      </c>
-      <c r="B243" t="s">
-        <v>188</v>
-      </c>
-      <c r="C243" t="s">
-        <v>218</v>
-      </c>
-      <c r="D243">
-        <v>126.299975</v>
-      </c>
-      <c r="E243">
-        <v>36.742666666666601</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A244" t="str">
-        <f t="shared" si="4"/>
-        <v>충청홍성군</v>
-      </c>
-      <c r="B244" t="s">
-        <v>188</v>
-      </c>
-      <c r="C244" t="s">
-        <v>219</v>
-      </c>
-      <c r="D244">
-        <v>126.66290833333299</v>
-      </c>
-      <c r="E244">
         <v>36.598361111111103</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A245" t="str">
-        <f t="shared" si="4"/>
-        <v>충청대전시</v>
-      </c>
-      <c r="B245" t="s">
-        <v>231</v>
-      </c>
-      <c r="C245" t="s">
-        <v>233</v>
-      </c>
-      <c r="D245">
-        <v>127.384861613445</v>
-      </c>
-      <c r="E245">
-        <v>36.350629501364203</v>
       </c>
     </row>
   </sheetData>
